--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1956.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1956.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.548801368546423</v>
+        <v>0.2444541603326797</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.2060756683349609</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.1889204978942871</v>
       </c>
       <c r="D1">
-        <v>1.242211469503813</v>
+        <v>0.2145034372806549</v>
       </c>
       <c r="E1">
-        <v>0.8705467848896238</v>
+        <v>0.278813898563385</v>
       </c>
     </row>
   </sheetData>
